--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C123FB-8273-4977-B206-CE596AD9937C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85527A-AC8F-4541-9861-0CE66625AD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,14 +53,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,10 +84,11 @@
       <charset val="161"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,115 +113,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,27 +423,28 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="2">
         <v>597.5</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="2">
         <v>597.5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -530,8 +454,8 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -541,8 +465,8 @@
         <v>596.36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -552,19 +476,19 @@
         <v>357.89</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>560</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>560</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -574,14 +498,14 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>277.5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>277.5</v>
       </c>
     </row>
